--- a/spliced/walkingToRunning/2023-04-03_16-55-17/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-55-17/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.6694521307945251</v>
+        <v>2.903977394104004</v>
       </c>
       <c r="B2" t="n">
-        <v>1.68784499168396</v>
+        <v>-3.523428678512573</v>
       </c>
       <c r="C2" t="n">
-        <v>1.881057262420654</v>
+        <v>-6.097240924835205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.579437255859375</v>
+        <v>1.744969725608826</v>
       </c>
       <c r="B3" t="n">
-        <v>1.968542098999024</v>
+        <v>-0.8538760542869568</v>
       </c>
       <c r="C3" t="n">
-        <v>1.206744909286499</v>
+        <v>-4.247409343719482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.012999892234802</v>
+        <v>4.650478363037109</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0750345662236213</v>
+        <v>11.04139995574951</v>
       </c>
       <c r="C4" t="n">
-        <v>1.888514161109924</v>
+        <v>-3.084672927856445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.419930934906006</v>
+        <v>-3.62076735496521</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08994826674461361</v>
+        <v>-5.12558650970459</v>
       </c>
       <c r="C5" t="n">
-        <v>1.70954966545105</v>
+        <v>7.287806987762451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6296378970146179</v>
+        <v>-5.951565742492676</v>
       </c>
       <c r="B6" t="n">
-        <v>1.454552054405212</v>
+        <v>1.577590107917786</v>
       </c>
       <c r="C6" t="n">
-        <v>1.549227356910706</v>
+        <v>6.344515323638916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.903977394104004</v>
+        <v>-1.728857636451721</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.523428678512573</v>
+        <v>8.543354034423828</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.097240924835205</v>
+        <v>3.901864051818848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.744969725608826</v>
+        <v>1.824864625930786</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.8538760542869568</v>
+        <v>-0.6525410413742065</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.247409343719482</v>
+        <v>-3.505985021591187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.650478363037109</v>
+        <v>5.772734642028809</v>
       </c>
       <c r="B9" t="n">
-        <v>11.04139995574951</v>
+        <v>-3.56550669670105</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.084672927856445</v>
+        <v>-3.791476011276245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.62076735496521</v>
+        <v>4.579105854034424</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.12558650970459</v>
+        <v>3.013566493988037</v>
       </c>
       <c r="C10" t="n">
-        <v>7.287806987762451</v>
+        <v>-2.666023969650269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.951565742492676</v>
+        <v>-5.41840124130249</v>
       </c>
       <c r="B11" t="n">
-        <v>1.577590107917786</v>
+        <v>-4.322909832000732</v>
       </c>
       <c r="C11" t="n">
-        <v>6.344515323638916</v>
+        <v>2.317283153533936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.728857636451721</v>
+        <v>-11.62250137329102</v>
       </c>
       <c r="B12" t="n">
-        <v>8.543354034423828</v>
+        <v>-2.614225625991821</v>
       </c>
       <c r="C12" t="n">
-        <v>3.901864051818848</v>
+        <v>11.06896305084228</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.824864625930786</v>
+        <v>7.474494457244873</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.6525410413742065</v>
+        <v>-2.812897443771362</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.505985021591187</v>
+        <v>-3.427688121795654</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.772734642028809</v>
+        <v>1.629921197891235</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.56550669670105</v>
+        <v>-8.41618824005127</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.791476011276245</v>
+        <v>3.490139245986938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.579105854034424</v>
+        <v>8.126436233520508</v>
       </c>
       <c r="B15" t="n">
-        <v>3.013566493988037</v>
+        <v>-4.144477844238281</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.666023969650269</v>
+        <v>-0.5264403820037842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-5.41840124130249</v>
+        <v>1.081842660903931</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.322909832000732</v>
+        <v>-4.525310039520264</v>
       </c>
       <c r="C16" t="n">
-        <v>2.317283153533936</v>
+        <v>-0.875314474105835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-11.62250137329102</v>
+        <v>-1.842840909957886</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.614225625991821</v>
+        <v>-1.715674996376038</v>
       </c>
       <c r="C17" t="n">
-        <v>11.06896305084228</v>
+        <v>-1.691839694976807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.474494457244873</v>
+        <v>-15.37276458740234</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.812897443771362</v>
+        <v>-16.33429908752441</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.427688121795654</v>
+        <v>3.632352113723755</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.629921197891235</v>
+        <v>7.317900657653809</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.41618824005127</v>
+        <v>-9.003682136535645</v>
       </c>
       <c r="C19" t="n">
-        <v>3.490139245986938</v>
+        <v>-1.13044536113739</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.126436233520508</v>
+        <v>0.0980709120631218</v>
       </c>
       <c r="B20" t="n">
-        <v>-4.144477844238281</v>
+        <v>-6.593521118164063</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.5264403820037842</v>
+        <v>0.4514724016189575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.081842660903931</v>
+        <v>9.948039054870604</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.525310039520264</v>
+        <v>6.794189929962158</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.875314474105835</v>
+        <v>0.0589224398136138</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.0385662317276</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.36523699760437</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.002214074134827</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.924617052078247</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8201870322227478</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.637111783027649</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-9.886119842529297</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-17.29250526428223</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4699813723564148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.15168571472168</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-2.607833862304688</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.956591844558716</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.8223176002502441</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-5.908023357391357</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7502790689468384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>7.825499057769775</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.2695784866809845</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.960819005966186</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.197174549102783</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.826995134353638</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.098770618438721</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.679322838783264</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.35203742980957</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.066413402557373</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-7.180881023406982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.29631233215332</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12.63969612121582</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.2972753643989563</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.379552841186523</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.9200555682182312</v>
       </c>
     </row>
   </sheetData>
